--- a/Data/Diccionario de Datos STEAM.xlsx
+++ b/Data/Diccionario de Datos STEAM.xlsx
@@ -210,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,7 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -248,12 +248,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000ff"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -382,10 +376,10 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
